--- a/final_output_CAL_VS_SANJOSEST.xlsx
+++ b/final_output_CAL_VS_SANJOSEST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="15">
   <si>
     <t>Notes</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>If individual kicker out of range, next decision is: go for it.</t>
+  </si>
+  <si>
+    <t>Take delay of game.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
         <v>3.068890233548588</v>
       </c>
       <c r="I2">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -493,7 +496,7 @@
         <v>3.007391907161134</v>
       </c>
       <c r="I3">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -513,7 +516,7 @@
         <v>2.943521591873862</v>
       </c>
       <c r="I4">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -533,7 +536,7 @@
         <v>2.877094666709947</v>
       </c>
       <c r="I5">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -553,7 +556,7 @@
         <v>2.808125643295674</v>
       </c>
       <c r="I6">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -573,7 +576,7 @@
         <v>2.736840423128956</v>
       </c>
       <c r="I7">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -593,7 +596,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -613,7 +616,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -633,7 +636,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.6665300000000001</v>
+        <v>0.6621600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -653,7 +656,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -673,7 +676,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -693,7 +696,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -713,7 +716,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -733,7 +736,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -753,7 +756,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -773,7 +776,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -793,7 +796,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -813,7 +816,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -833,7 +836,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.62563</v>
+        <v>0.6173</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -853,7 +856,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -873,7 +876,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -893,7 +896,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -913,7 +916,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -933,7 +936,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -953,7 +956,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -973,7 +976,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -993,7 +996,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1013,7 +1016,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -1036,7 +1039,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.60651</v>
+        <v>0.59424</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -1056,7 +1059,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -1076,7 +1079,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -1096,7 +1099,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -1116,7 +1119,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -1136,7 +1139,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -1156,7 +1159,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -1176,7 +1179,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -1196,7 +1199,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -1216,7 +1219,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -1236,7 +1239,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.57623</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -1256,7 +1259,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -1276,7 +1279,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -1296,7 +1299,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -1316,7 +1319,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -1336,7 +1339,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -1356,7 +1359,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -1376,7 +1379,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -1396,7 +1399,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -1416,7 +1419,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -1436,7 +1439,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.55332</v>
+        <v>0.53308</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -1456,7 +1459,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -1476,7 +1479,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -1496,7 +1499,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -1516,7 +1519,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -1536,7 +1539,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -1556,7 +1559,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -1576,7 +1579,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -1596,7 +1599,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -1616,7 +1619,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -1636,7 +1639,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.524</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -1656,7 +1659,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -1676,7 +1679,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -1696,7 +1699,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -1716,7 +1719,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -1736,7 +1739,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -1756,7 +1759,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -1776,7 +1779,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -1796,7 +1799,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -1816,7 +1819,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -1836,7 +1839,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.49723</v>
+        <v>0.46874</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -1856,7 +1859,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -1876,7 +1879,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -1896,7 +1899,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -1916,7 +1919,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -1936,7 +1939,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -1956,7 +1959,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -1976,7 +1979,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -1996,7 +1999,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -2016,7 +2019,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -2036,7 +2039,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.46077</v>
+        <v>0.4285600000000001</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2056,7 +2059,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2076,7 +2079,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2096,7 +2099,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2116,7 +2119,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2136,7 +2139,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2156,7 +2159,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2176,7 +2179,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2196,7 +2199,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2216,7 +2219,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2236,7 +2239,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.43762</v>
+        <v>0.40067</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -2256,7 +2259,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -2276,7 +2279,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2287,7 +2290,7 @@
         <v>92</v>
       </c>
       <c r="I93">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2298,7 +2301,7 @@
         <v>93</v>
       </c>
       <c r="I94">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -2309,7 +2312,7 @@
         <v>94</v>
       </c>
       <c r="I95">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -2320,7 +2323,7 @@
         <v>95</v>
       </c>
       <c r="I96">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2331,7 +2334,7 @@
         <v>96</v>
       </c>
       <c r="I97">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -2342,7 +2345,7 @@
         <v>97</v>
       </c>
       <c r="I98">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -2353,7 +2356,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2364,7 +2367,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.41207</v>
+        <v>0.37356</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2437,7 @@
         <v>3.007391907161134</v>
       </c>
       <c r="I3">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2454,7 +2457,7 @@
         <v>2.943521591873862</v>
       </c>
       <c r="I4">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2474,7 +2477,7 @@
         <v>2.877094666709947</v>
       </c>
       <c r="I5">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2494,7 +2497,7 @@
         <v>2.808125643295674</v>
       </c>
       <c r="I6">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2514,7 +2517,7 @@
         <v>2.736840423128956</v>
       </c>
       <c r="I7">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2534,7 +2537,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2554,7 +2557,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2574,7 +2577,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2594,7 +2597,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.49375</v>
+        <v>0.49069</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2614,7 +2617,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2634,7 +2637,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2654,7 +2657,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2674,7 +2677,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2694,7 +2697,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2714,7 +2717,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2734,7 +2737,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2754,7 +2757,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2774,7 +2777,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2794,7 +2797,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.5492199999999999</v>
+        <v>0.54227</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2814,7 +2817,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2834,7 +2837,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2854,7 +2857,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2874,7 +2877,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2897,7 +2900,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2920,7 +2923,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2943,7 +2946,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2963,7 +2966,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2986,7 +2989,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3006,7 +3009,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.5182600000000001</v>
+        <v>0.5081399999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3026,10 +3029,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -3046,10 +3049,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -3066,10 +3069,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -3086,10 +3089,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -3106,10 +3109,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -3126,10 +3129,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -3146,10 +3149,10 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -3166,10 +3169,10 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -3186,10 +3189,10 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -3206,10 +3209,13 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.4978899999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.48438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -3223,13 +3229,16 @@
         <v>-0.4675264835300811</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.4749</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.45796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -3243,13 +3252,16 @@
         <v>-0.5287790082353004</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.4749</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.45796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -3263,13 +3275,13 @@
         <v>-0.5900315329405199</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.4749</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.45796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -3286,10 +3298,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.4749</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.45796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -3306,10 +3318,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.4749</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.45796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -3326,10 +3338,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.4749</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.45796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -3346,7 +3358,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.4749</v>
+        <v>0.45796</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -3366,7 +3378,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.4749</v>
+        <v>0.45796</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -3386,7 +3398,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.4749</v>
+        <v>0.45796</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -3406,7 +3418,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.4749</v>
+        <v>0.45796</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -3426,7 +3438,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -3446,7 +3458,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -3466,7 +3478,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -3486,7 +3498,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -3506,7 +3518,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -3526,7 +3538,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -3546,7 +3558,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3566,7 +3578,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -3586,7 +3598,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -3606,7 +3618,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.46785</v>
+        <v>0.44668</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -3626,7 +3638,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -3646,7 +3658,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -3666,7 +3678,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -3686,7 +3698,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -3706,7 +3718,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -3726,7 +3738,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -3746,7 +3758,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -3766,7 +3778,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -3786,7 +3798,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -3806,7 +3818,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.44235</v>
+        <v>0.41752</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -3826,7 +3838,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -3846,7 +3858,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -3866,7 +3878,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -3886,7 +3898,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -3906,7 +3918,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -3926,7 +3938,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -3946,7 +3958,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -3966,7 +3978,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -3986,7 +3998,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4006,7 +4018,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.4109</v>
+        <v>0.38273</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4026,7 +4038,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4046,7 +4058,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4066,7 +4078,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4086,7 +4098,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4106,7 +4118,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4126,7 +4138,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4146,7 +4158,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4166,7 +4178,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4186,7 +4198,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4206,7 +4218,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.37636</v>
+        <v>0.34517</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4226,7 +4238,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4246,7 +4258,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4257,7 +4269,7 @@
         <v>93</v>
       </c>
       <c r="I94">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4268,7 +4280,7 @@
         <v>94</v>
       </c>
       <c r="I95">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4279,7 +4291,7 @@
         <v>95</v>
       </c>
       <c r="I96">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4290,7 +4302,7 @@
         <v>96</v>
       </c>
       <c r="I97">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4301,7 +4313,7 @@
         <v>97</v>
       </c>
       <c r="I98">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4312,7 +4324,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4323,7 +4335,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.328</v>
+        <v>0.29763</v>
       </c>
     </row>
   </sheetData>
@@ -4401,7 +4413,7 @@
         <v>2.943521591873862</v>
       </c>
       <c r="I4">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4421,7 +4433,7 @@
         <v>2.877094666709947</v>
       </c>
       <c r="I5">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4441,7 +4453,7 @@
         <v>2.808125643295674</v>
       </c>
       <c r="I6">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4461,7 +4473,7 @@
         <v>2.736840423128956</v>
       </c>
       <c r="I7">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4481,7 +4493,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4501,7 +4513,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4521,7 +4533,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4541,7 +4553,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4561,7 +4573,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.39536</v>
+        <v>0.39304</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4581,7 +4593,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4601,7 +4613,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4621,7 +4633,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4641,7 +4653,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4661,7 +4673,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4681,7 +4693,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4701,7 +4713,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4721,7 +4733,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4741,7 +4753,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4761,7 +4773,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.48695</v>
+        <v>0.48111</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4781,7 +4793,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4801,7 +4813,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4821,7 +4833,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4844,7 +4856,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4867,7 +4879,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4890,7 +4902,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4913,7 +4925,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4936,7 +4948,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4956,7 +4968,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.4577</v>
+        <v>0.44909</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4976,10 +4988,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.4577</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.44909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -4996,10 +5008,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -5016,10 +5028,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -5036,10 +5048,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -5056,10 +5068,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -5076,10 +5088,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -5096,10 +5108,10 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -5116,10 +5128,10 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -5136,10 +5148,13 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -5153,13 +5168,16 @@
         <v>-0.5040549288033621</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -5173,13 +5191,16 @@
         <v>-0.5648384241599431</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.43779</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.42626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -5193,13 +5214,16 @@
         <v>-0.6256219195165242</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.41749</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.40298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -5213,13 +5237,13 @@
         <v>-0.6864054148731052</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.41749</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.40298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -5236,10 +5260,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.41749</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.40298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -5256,10 +5280,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.41749</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.40298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -5276,10 +5300,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.41749</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.40298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -5296,7 +5320,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.41749</v>
+        <v>0.40298</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -5316,7 +5340,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.41749</v>
+        <v>0.40298</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -5336,7 +5360,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.41749</v>
+        <v>0.40298</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -5356,7 +5380,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.41749</v>
+        <v>0.40298</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -5376,7 +5400,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.41749</v>
+        <v>0.40298</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -5396,7 +5420,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -5416,7 +5440,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -5436,7 +5460,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -5456,7 +5480,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -5476,7 +5500,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -5496,7 +5520,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -5516,7 +5540,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -5536,7 +5560,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -5556,7 +5580,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -5576,7 +5600,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.42132</v>
+        <v>0.40268</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -5596,7 +5620,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -5616,7 +5640,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -5636,7 +5660,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -5656,7 +5680,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -5676,7 +5700,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -5696,7 +5720,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -5716,7 +5740,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -5736,7 +5760,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -5756,7 +5780,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -5776,7 +5800,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.39451</v>
+        <v>0.37282</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -5796,7 +5820,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -5816,7 +5840,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -5836,7 +5860,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -5856,7 +5880,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -5876,7 +5900,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -5896,7 +5920,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -5916,7 +5940,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -5936,7 +5960,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5956,7 +5980,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5976,7 +6000,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.36696</v>
+        <v>0.34229</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5996,7 +6020,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6016,7 +6040,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6036,7 +6060,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6056,7 +6080,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6076,7 +6100,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6096,7 +6120,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6116,7 +6140,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6136,7 +6160,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6156,7 +6180,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6176,7 +6200,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.32993</v>
+        <v>0.30309</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6196,7 +6220,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6216,7 +6240,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6227,7 +6251,7 @@
         <v>94</v>
       </c>
       <c r="I95">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6238,7 +6262,7 @@
         <v>95</v>
       </c>
       <c r="I96">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6249,7 +6273,7 @@
         <v>96</v>
       </c>
       <c r="I97">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6260,7 +6284,7 @@
         <v>97</v>
       </c>
       <c r="I98">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6271,7 +6295,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6282,7 +6306,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.26375</v>
+        <v>0.23955</v>
       </c>
     </row>
   </sheetData>
@@ -6368,7 +6392,7 @@
         <v>2.877094666709947</v>
       </c>
       <c r="I5">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6388,7 +6412,7 @@
         <v>2.808125643295674</v>
       </c>
       <c r="I6">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6408,7 +6432,7 @@
         <v>2.736840423128956</v>
       </c>
       <c r="I7">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6428,7 +6452,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6448,7 +6472,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6468,7 +6492,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6488,7 +6512,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6508,7 +6532,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6528,7 +6552,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.3521</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6548,7 +6572,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6568,7 +6592,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6588,7 +6612,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6608,7 +6632,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6628,7 +6652,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6648,7 +6672,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6668,7 +6692,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6688,7 +6712,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6708,7 +6732,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6728,7 +6752,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.43728</v>
+        <v>0.43231</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6748,7 +6772,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6768,7 +6792,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6791,7 +6815,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6814,7 +6838,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6837,7 +6861,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6860,7 +6884,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6883,7 +6907,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6903,7 +6927,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.41863</v>
+        <v>0.41106</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6923,10 +6947,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.41863</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.41106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -6943,10 +6967,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.41863</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.41106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -6963,10 +6987,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -6983,10 +7007,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -7003,10 +7027,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -7023,10 +7047,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -7043,10 +7067,10 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -7063,10 +7087,13 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -7080,13 +7107,16 @@
         <v>-0.5070098857706387</v>
       </c>
       <c r="G40">
-        <v>-0.4580998787393815</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -7100,13 +7130,16 @@
         <v>-0.5673446272847493</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -7120,13 +7153,16 @@
         <v>-0.62767936879886</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -7140,13 +7176,16 @@
         <v>-0.6880141103129707</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.39319</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.38315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -7160,13 +7199,13 @@
         <v>-0.7483488518270816</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.36423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -7183,10 +7222,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.36423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -7203,10 +7242,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.36423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -7223,10 +7262,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.36423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -7243,7 +7282,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.377</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -7263,7 +7302,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.377</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -7283,7 +7322,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.377</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -7303,7 +7342,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.377</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -7323,7 +7362,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.377</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -7343,7 +7382,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.377</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -7363,7 +7402,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -7383,7 +7422,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -7403,7 +7442,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -7423,7 +7462,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -7443,7 +7482,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -7463,7 +7502,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -7483,7 +7522,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -7503,7 +7542,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -7523,7 +7562,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -7543,7 +7582,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.38324</v>
+        <v>0.36667</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -7563,7 +7602,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -7583,7 +7622,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -7603,7 +7642,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -7623,7 +7662,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -7643,7 +7682,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -7663,7 +7702,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -7683,7 +7722,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -7703,7 +7742,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -7723,7 +7762,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -7743,7 +7782,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.35414</v>
+        <v>0.33507</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -7763,7 +7802,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -7783,7 +7822,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -7803,7 +7842,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -7823,7 +7862,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -7843,7 +7882,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -7863,7 +7902,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -7883,7 +7922,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7903,7 +7942,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7923,7 +7962,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7943,7 +7982,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.32952</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7963,7 +8002,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7983,7 +8022,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8003,7 +8042,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8023,7 +8062,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8043,7 +8082,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -8063,7 +8102,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -8083,7 +8122,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -8103,7 +8142,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -8123,7 +8162,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -8143,7 +8182,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.29546</v>
+        <v>0.27187</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -8163,7 +8202,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -8183,7 +8222,7 @@
         <v>-2.646691965214717</v>
       </c>
       <c r="I95">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -8194,7 +8233,7 @@
         <v>95</v>
       </c>
       <c r="I96">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -8205,7 +8244,7 @@
         <v>96</v>
       </c>
       <c r="I97">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8216,7 +8255,7 @@
         <v>97</v>
       </c>
       <c r="I98">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -8227,7 +8266,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8238,7 +8277,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.21805</v>
+        <v>0.19823</v>
       </c>
     </row>
   </sheetData>
@@ -8332,7 +8371,7 @@
         <v>2.808125643295674</v>
       </c>
       <c r="I6">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8352,7 +8391,7 @@
         <v>2.736840423128956</v>
       </c>
       <c r="I7">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8372,7 +8411,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8392,7 +8431,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8412,7 +8451,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8432,7 +8471,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8452,7 +8491,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8472,7 +8511,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8492,7 +8531,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.34458</v>
+        <v>0.34283</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8512,7 +8551,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8532,7 +8571,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8552,7 +8591,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8572,7 +8611,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8592,7 +8631,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8612,7 +8651,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -8632,7 +8671,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8652,7 +8691,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -8672,7 +8711,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -8692,7 +8731,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.39864</v>
+        <v>0.39437</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -8712,7 +8751,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8735,7 +8774,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8758,7 +8797,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8781,7 +8820,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8804,7 +8843,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8830,7 +8869,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8850,7 +8889,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.39471</v>
+        <v>0.38785</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8870,10 +8909,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.39471</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.38785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -8890,10 +8929,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.39471</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.38785</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -8910,10 +8949,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.39471</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.38785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -8930,10 +8969,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -8950,10 +8989,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -8970,10 +9009,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -8990,10 +9029,10 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -9010,10 +9049,13 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -9027,13 +9069,16 @@
         <v>-0.5706517867987564</v>
       </c>
       <c r="G40">
-        <v>-0.4580998787393815</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -9047,13 +9092,16 @@
         <v>-0.6305445543445528</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -9067,13 +9115,16 @@
         <v>-0.690437321890349</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -9087,13 +9138,16 @@
         <v>-0.7503300894361453</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -9107,13 +9161,13 @@
         <v>-0.8102228569819415</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.36128</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.35233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -9130,10 +9184,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.34917</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.33765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -9150,10 +9204,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.34917</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.33765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -9170,10 +9224,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.34917</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.33765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -9190,7 +9244,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -9210,7 +9264,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -9230,7 +9284,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -9250,7 +9304,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -9270,7 +9324,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -9290,7 +9344,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -9310,7 +9364,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.34917</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -9330,7 +9384,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -9350,7 +9404,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -9370,7 +9424,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -9390,7 +9444,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -9410,7 +9464,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -9430,7 +9484,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -9450,7 +9504,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -9470,7 +9524,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -9490,7 +9544,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -9510,7 +9564,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.35244</v>
+        <v>0.33755</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -9530,7 +9584,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -9550,7 +9604,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -9570,7 +9624,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -9590,7 +9644,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -9610,7 +9664,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -9630,7 +9684,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -9650,7 +9704,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -9670,7 +9724,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -9690,7 +9744,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -9710,7 +9764,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.32166</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -9730,7 +9784,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -9750,7 +9804,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -9770,7 +9824,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -9790,7 +9844,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -9810,7 +9864,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -9830,7 +9884,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -9850,7 +9904,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -9870,7 +9924,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -9890,7 +9944,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -9910,7 +9964,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.29918</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -9930,7 +9984,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -9950,7 +10004,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -9970,7 +10024,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -9990,7 +10044,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -10010,7 +10064,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -10030,7 +10084,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -10050,7 +10104,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -10070,7 +10124,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -10090,7 +10144,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -10110,7 +10164,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.26998</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -10130,7 +10184,7 @@
         <v>-2.646691965214717</v>
       </c>
       <c r="I95">
-        <v>0.18963</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -10150,7 +10204,7 @@
         <v>-2.7014067673766</v>
       </c>
       <c r="I96">
-        <v>0.18963</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -10161,7 +10215,7 @@
         <v>96</v>
       </c>
       <c r="I97">
-        <v>0.18963</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -10172,7 +10226,7 @@
         <v>97</v>
       </c>
       <c r="I98">
-        <v>0.18963</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -10183,7 +10237,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.18963</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -10194,7 +10248,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.18963</v>
+        <v>0.17255</v>
       </c>
     </row>
   </sheetData>
@@ -10296,7 +10350,7 @@
         <v>2.736840423128956</v>
       </c>
       <c r="I7">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10316,7 +10370,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10336,7 +10390,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10356,7 +10410,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10376,7 +10430,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10396,7 +10450,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10416,7 +10470,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10436,7 +10490,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10456,7 +10510,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.35316</v>
+        <v>0.35152</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10476,7 +10530,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10496,7 +10550,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10516,7 +10570,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10536,7 +10590,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -10556,7 +10610,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -10576,7 +10630,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -10596,7 +10650,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -10616,7 +10670,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -10636,7 +10690,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -10656,7 +10710,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.36944</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -10679,7 +10733,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.37946</v>
+        <v>0.37313</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -10702,7 +10756,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.37946</v>
+        <v>0.37313</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -10725,7 +10779,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.37946</v>
+        <v>0.37313</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -10748,7 +10802,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.37946</v>
+        <v>0.37313</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -10774,7 +10828,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.37946</v>
+        <v>0.37313</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -10794,7 +10848,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.37946</v>
+        <v>0.37313</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -10814,10 +10868,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.37946</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.37313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -10834,10 +10888,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.37946</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.37313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -10854,10 +10908,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.37946</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.37313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -10874,10 +10928,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.37946</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.37313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -10894,10 +10948,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -10914,10 +10968,13 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -10931,13 +10988,16 @@
         <v>-0.5196971153678063</v>
       </c>
       <c r="G38">
-        <v>-0.5128146809012657</v>
+        <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -10951,13 +11011,16 @@
         <v>-0.5791411824640862</v>
       </c>
       <c r="G39">
-        <v>-0.5128146809012657</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -10971,13 +11034,16 @@
         <v>-0.6385852495603663</v>
       </c>
       <c r="G40">
-        <v>-0.4580998787393815</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -10991,13 +11057,16 @@
         <v>-0.6980293166566464</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -11011,13 +11080,16 @@
         <v>-0.7574733837529265</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -11031,13 +11103,16 @@
         <v>-0.8169174508492063</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -11051,13 +11126,13 @@
         <v>-0.8763615179454864</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -11074,10 +11149,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.33919</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.33105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -11094,10 +11169,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.32968</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.31909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -11114,10 +11189,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.32968</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.31909</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -11134,7 +11209,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -11154,7 +11229,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -11174,7 +11249,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -11194,7 +11269,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -11214,7 +11289,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -11234,7 +11309,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -11254,7 +11329,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -11274,7 +11349,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.32968</v>
+        <v>0.31909</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -11294,7 +11369,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -11314,7 +11389,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -11334,7 +11409,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -11354,7 +11429,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -11374,7 +11449,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -11394,7 +11469,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -11414,7 +11489,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -11434,7 +11509,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -11454,7 +11529,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -11474,7 +11549,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.32769</v>
+        <v>0.31416</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -11494,7 +11569,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -11514,7 +11589,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -11534,7 +11609,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -11554,7 +11629,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -11574,7 +11649,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -11594,7 +11669,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -11614,7 +11689,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -11634,7 +11709,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -11654,7 +11729,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -11674,7 +11749,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.2975</v>
+        <v>0.28215</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -11694,7 +11769,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -11714,7 +11789,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -11734,7 +11809,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -11754,7 +11829,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -11774,7 +11849,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -11794,7 +11869,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -11814,7 +11889,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -11834,7 +11909,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -11854,7 +11929,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -11874,7 +11949,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.27655</v>
+        <v>0.25902</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -11894,7 +11969,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -11914,7 +11989,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -11934,7 +12009,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -11954,7 +12029,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -11974,7 +12049,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -11994,7 +12069,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -12014,7 +12089,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -12034,7 +12109,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -12054,7 +12129,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -12074,7 +12149,7 @@
         <v>-2.646691965214717</v>
       </c>
       <c r="I95">
-        <v>0.25044</v>
+        <v>0.23118</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -12094,7 +12169,7 @@
         <v>-2.7014067673766</v>
       </c>
       <c r="I96">
-        <v>0.17718</v>
+        <v>0.16136</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -12114,7 +12189,7 @@
         <v>-2.756121569538484</v>
       </c>
       <c r="I97">
-        <v>0.17718</v>
+        <v>0.16136</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -12125,7 +12200,7 @@
         <v>97</v>
       </c>
       <c r="I98">
-        <v>0.17718</v>
+        <v>0.16136</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -12136,7 +12211,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.17718</v>
+        <v>0.16136</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -12147,7 +12222,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.17718</v>
+        <v>0.16136</v>
       </c>
     </row>
   </sheetData>
@@ -12257,7 +12332,7 @@
         <v>2.663435308173375</v>
       </c>
       <c r="I8">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12277,7 +12352,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -12297,7 +12372,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -12317,7 +12392,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -12337,7 +12412,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12357,7 +12432,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12377,7 +12452,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12397,7 +12472,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12417,7 +12492,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.35805</v>
+        <v>0.35658</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -12437,7 +12512,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -12457,7 +12532,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12477,7 +12552,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -12497,7 +12572,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -12517,7 +12592,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -12537,7 +12612,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12557,7 +12632,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -12577,7 +12652,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -12597,7 +12672,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -12620,7 +12695,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.34802</v>
+        <v>0.34473</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -12643,7 +12718,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.36626</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -12666,7 +12741,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.36626</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -12689,7 +12764,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.36626</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -12715,7 +12790,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.36626</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -12735,7 +12810,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.36626</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -12755,10 +12830,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.36626</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -12775,10 +12850,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.36626</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -12795,10 +12870,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.36626</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -12815,10 +12890,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.36626</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -12835,10 +12910,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.36626</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -12855,10 +12930,13 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -12872,13 +12950,16 @@
         <v>-0.5738438683926543</v>
       </c>
       <c r="G38">
-        <v>-0.5128146809012657</v>
+        <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -12892,13 +12973,16 @@
         <v>-0.632930985914814</v>
       </c>
       <c r="G39">
-        <v>-0.5128146809012657</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -12912,13 +12996,16 @@
         <v>-0.6920181034369739</v>
       </c>
       <c r="G40">
-        <v>-0.4580998787393815</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -12932,13 +13019,16 @@
         <v>-0.7511052209591336</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -12952,13 +13042,16 @@
         <v>-0.8101923384812932</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -12972,13 +13065,16 @@
         <v>-0.8692794560034528</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -12992,13 +13088,13 @@
         <v>-0.9283665735256124</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -13015,10 +13111,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -13035,10 +13131,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.32397</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.31644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -13055,10 +13151,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.31408</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.30426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -13075,7 +13171,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -13095,7 +13191,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -13115,7 +13211,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -13135,7 +13231,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -13155,7 +13251,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -13175,7 +13271,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -13195,7 +13291,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -13215,7 +13311,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -13235,7 +13331,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.31408</v>
+        <v>0.30426</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -13255,7 +13351,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -13275,7 +13371,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -13295,7 +13391,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -13315,7 +13411,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -13335,7 +13431,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -13355,7 +13451,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -13375,7 +13471,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -13395,7 +13491,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -13415,7 +13511,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -13435,7 +13531,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.30771</v>
+        <v>0.29531</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -13455,7 +13551,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -13475,7 +13571,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -13495,7 +13591,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -13515,7 +13611,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -13535,7 +13631,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -13555,7 +13651,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -13575,7 +13671,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -13595,7 +13691,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -13615,7 +13711,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -13635,7 +13731,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.28211</v>
+        <v>0.26786</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -13655,7 +13751,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -13675,7 +13771,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -13695,7 +13791,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -13715,7 +13811,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -13735,7 +13831,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -13755,7 +13851,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -13775,7 +13871,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -13795,7 +13891,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -13815,7 +13911,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -13835,7 +13931,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.26223</v>
+        <v>0.24594</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -13855,7 +13951,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -13875,7 +13971,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -13895,7 +13991,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -13915,7 +14011,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -13935,7 +14031,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -13955,7 +14051,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -13975,7 +14071,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -13995,7 +14091,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -14015,7 +14111,7 @@
         <v>-2.646691965214717</v>
       </c>
       <c r="I95">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -14035,7 +14131,7 @@
         <v>-2.7014067673766</v>
       </c>
       <c r="I96">
-        <v>0.23368</v>
+        <v>0.21604</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -14055,7 +14151,7 @@
         <v>-2.756121569538484</v>
       </c>
       <c r="I97">
-        <v>0.17935</v>
+        <v>0.16349</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -14075,7 +14171,7 @@
         <v>-2.810836371700367</v>
       </c>
       <c r="I98">
-        <v>0.17935</v>
+        <v>0.16349</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -14086,7 +14182,7 @@
         <v>98</v>
       </c>
       <c r="I99">
-        <v>0.17935</v>
+        <v>0.16349</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -14097,7 +14193,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.17935</v>
+        <v>0.16349</v>
       </c>
     </row>
   </sheetData>
@@ -14215,7 +14311,7 @@
         <v>2.587852361281663</v>
       </c>
       <c r="I9">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -14235,7 +14331,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -14255,7 +14351,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -14275,7 +14371,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14295,7 +14391,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -14315,7 +14411,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -14335,7 +14431,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -14355,7 +14451,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -14375,7 +14471,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.33924</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -14395,7 +14491,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -14415,7 +14511,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -14435,7 +14531,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -14455,7 +14551,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -14475,7 +14571,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -14495,7 +14591,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -14515,7 +14611,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -14535,7 +14631,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -14558,7 +14654,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -14581,7 +14677,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.33273</v>
+        <v>0.32978</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -14604,7 +14700,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.34833</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -14627,7 +14723,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.34833</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -14653,7 +14749,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.34833</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -14673,7 +14769,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.34833</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -14693,10 +14789,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.34833</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -14713,10 +14809,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.34833</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -14733,10 +14829,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.34833</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -14753,10 +14849,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.34833</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -14773,10 +14869,10 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.34833</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -14793,10 +14889,13 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.34833</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -14810,13 +14909,16 @@
         <v>-0.6230667024431211</v>
       </c>
       <c r="G38">
-        <v>-0.5128146809012657</v>
+        <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -14830,13 +14932,16 @@
         <v>-0.6818046110973319</v>
       </c>
       <c r="G39">
-        <v>-0.5128146809012657</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -14850,13 +14955,16 @@
         <v>-0.7405425197515429</v>
       </c>
       <c r="G40">
-        <v>-0.4580998787393815</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -14870,13 +14978,16 @@
         <v>-0.7992804284057535</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -14890,13 +15001,16 @@
         <v>-0.8580183370599643</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -14910,13 +15024,16 @@
         <v>-0.9167562457141751</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -14930,13 +15047,13 @@
         <v>-0.9754941543683859</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -14953,10 +15070,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -14973,10 +15090,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -14993,10 +15110,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.31262</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.3056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -15013,7 +15130,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -15033,7 +15150,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -15053,7 +15170,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -15073,7 +15190,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -15093,7 +15210,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -15113,7 +15230,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -15133,7 +15250,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -15153,7 +15270,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -15173,7 +15290,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -15193,7 +15310,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.29782</v>
+        <v>0.28875</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -15213,7 +15330,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -15233,7 +15350,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -15253,7 +15370,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -15273,7 +15390,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -15293,7 +15410,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -15313,7 +15430,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -15333,7 +15450,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -15353,7 +15470,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -15373,7 +15490,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -15393,7 +15510,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.29125</v>
+        <v>0.27978</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -15413,7 +15530,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -15433,7 +15550,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -15453,7 +15570,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -15473,7 +15590,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -15493,7 +15610,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -15513,7 +15630,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -15533,7 +15650,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -15553,7 +15670,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -15573,7 +15690,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -15593,7 +15710,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.27592</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -15613,7 +15730,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -15633,7 +15750,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -15653,7 +15770,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -15673,7 +15790,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -15693,7 +15810,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -15713,7 +15830,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -15733,7 +15850,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -15753,7 +15870,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -15773,7 +15890,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -15793,7 +15910,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.25686</v>
+        <v>0.24122</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -15813,7 +15930,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -15833,7 +15950,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -15853,7 +15970,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -15873,7 +15990,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -15893,7 +16010,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -15913,7 +16030,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -15933,7 +16050,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -15953,7 +16070,7 @@
         <v>-2.646691965214717</v>
       </c>
       <c r="I95">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -15973,7 +16090,7 @@
         <v>-2.7014067673766</v>
       </c>
       <c r="I96">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -15993,7 +16110,7 @@
         <v>-2.756121569538484</v>
       </c>
       <c r="I97">
-        <v>0.21643</v>
+        <v>0.2004</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -16013,7 +16130,7 @@
         <v>-2.810836371700367</v>
       </c>
       <c r="I98">
-        <v>0.19481</v>
+        <v>0.17774</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -16033,7 +16150,7 @@
         <v>-2.865551173862251</v>
       </c>
       <c r="I99">
-        <v>0.19481</v>
+        <v>0.17774</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -16044,7 +16161,7 @@
         <v>99</v>
       </c>
       <c r="I100">
-        <v>0.19481</v>
+        <v>0.17774</v>
       </c>
     </row>
   </sheetData>
@@ -16170,7 +16287,7 @@
         <v>2.509920417913489</v>
       </c>
       <c r="I10">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -16190,7 +16307,7 @@
         <v>2.429649311949604</v>
       </c>
       <c r="I11">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -16210,7 +16327,7 @@
         <v>2.346967059774256</v>
       </c>
       <c r="I12">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -16230,7 +16347,7 @@
         <v>2.261753619799835</v>
       </c>
       <c r="I13">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -16250,7 +16367,7 @@
         <v>2.174059693376794</v>
       </c>
       <c r="I14">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -16270,7 +16387,7 @@
         <v>2.083945723838753</v>
       </c>
       <c r="I15">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -16290,7 +16407,7 @@
         <v>1.990987631627953</v>
       </c>
       <c r="I16">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -16310,7 +16427,7 @@
         <v>1.894437189216145</v>
       </c>
       <c r="I17">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -16330,7 +16447,7 @@
         <v>1.794043771738893</v>
       </c>
       <c r="I18">
-        <v>0.2764</v>
+        <v>0.27573</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -16350,7 +16467,7 @@
         <v>1.689655117667058</v>
       </c>
       <c r="I19">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -16370,7 +16487,7 @@
         <v>1.580471857586565</v>
       </c>
       <c r="I20">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -16390,7 +16507,7 @@
         <v>1.465016824166689</v>
       </c>
       <c r="I21">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -16410,7 +16527,7 @@
         <v>1.34206942379876</v>
       </c>
       <c r="I22">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -16430,7 +16547,7 @@
         <v>1.2117565425556</v>
       </c>
       <c r="I23">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -16450,7 +16567,7 @@
         <v>1.063113953052438</v>
       </c>
       <c r="I24">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -16470,7 +16587,7 @@
         <v>0.9087779802139484</v>
       </c>
       <c r="I25">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -16493,7 +16610,7 @@
         <v>0.7507776491994299</v>
       </c>
       <c r="I26">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -16516,7 +16633,7 @@
         <v>0.589782870439261</v>
       </c>
       <c r="I27">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -16539,7 +16656,7 @@
         <v>0.4258534672090798</v>
       </c>
       <c r="I28">
-        <v>0.32184</v>
+        <v>0.31919</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -16562,7 +16679,7 @@
         <v>0.258844865016175</v>
       </c>
       <c r="I29">
-        <v>0.3188</v>
+        <v>0.31413</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -16588,7 +16705,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I30">
-        <v>0.3188</v>
+        <v>0.31413</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -16608,7 +16725,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I31">
-        <v>0.3188</v>
+        <v>0.31413</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -16628,10 +16745,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I32">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>-1.333536713329516</v>
       </c>
@@ -16648,10 +16765,10 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I33">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>-1.388251515491399</v>
       </c>
@@ -16668,10 +16785,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I34">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>-1.442966317653283</v>
       </c>
@@ -16688,10 +16805,10 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I35">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>-1.497681119815166</v>
       </c>
@@ -16708,10 +16825,13 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I36">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
       <c r="B37">
         <v>-1.55239592197705</v>
       </c>
@@ -16725,13 +16845,16 @@
         <v>-0.6169154274305523</v>
       </c>
       <c r="G37">
-        <v>-0.567529483063149</v>
+        <v>-0.7316738895487989</v>
       </c>
       <c r="I37">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
       <c r="B38">
         <v>-1.607110724138933</v>
       </c>
@@ -16745,13 +16868,16 @@
         <v>-0.6753053475595341</v>
       </c>
       <c r="G38">
-        <v>-0.5128146809012657</v>
+        <v>-0.6769590873869156</v>
       </c>
       <c r="I38">
-        <v>0.3188</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>0.31413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
       <c r="B39">
         <v>-1.661825526300816</v>
       </c>
@@ -16765,13 +16891,16 @@
         <v>-0.7336952676885161</v>
       </c>
       <c r="G39">
-        <v>-0.5128146809012657</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I39">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
       <c r="B40">
         <v>-1.7165403284627</v>
       </c>
@@ -16785,13 +16914,16 @@
         <v>-0.7920851878174984</v>
       </c>
       <c r="G40">
-        <v>-0.4580998787393815</v>
+        <v>-0.6222442852250323</v>
       </c>
       <c r="I40">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>-1.771255130624583</v>
       </c>
@@ -16805,13 +16937,16 @@
         <v>-0.8504751079464803</v>
       </c>
       <c r="G41">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I41">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
       <c r="B42">
         <v>-1.825969932786466</v>
       </c>
@@ -16825,13 +16960,16 @@
         <v>-0.9088650280754622</v>
       </c>
       <c r="G42">
-        <v>-0.4580998787393815</v>
+        <v>-0.567529483063149</v>
       </c>
       <c r="I42">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
       <c r="B43">
         <v>-1.88068473494835</v>
       </c>
@@ -16845,13 +16983,16 @@
         <v>-0.9672549482044441</v>
       </c>
       <c r="G43">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I43">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
       <c r="B44">
         <v>-1.935399537110233</v>
       </c>
@@ -16865,13 +17006,13 @@
         <v>-1.025644868333426</v>
       </c>
       <c r="G44">
-        <v>-0.4580998787393815</v>
+        <v>-0.5128146809012657</v>
       </c>
       <c r="I44">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45">
         <v>-1.990114339272117</v>
       </c>
@@ -16888,10 +17029,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I45">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>-2.044829141434</v>
       </c>
@@ -16908,10 +17049,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I46">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>-2.099543943595883</v>
       </c>
@@ -16928,10 +17069,10 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I47">
-        <v>0.30205</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>0.29549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>-2.154258745757767</v>
       </c>
@@ -16948,7 +17089,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I48">
-        <v>0.30205</v>
+        <v>0.29549</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -16968,7 +17109,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I49">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -16988,7 +17129,7 @@
         <v>-0.4580998787393815</v>
       </c>
       <c r="I50">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -17008,7 +17149,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I51">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -17028,7 +17169,7 @@
         <v>-0.5128146809012657</v>
       </c>
       <c r="I52">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -17048,7 +17189,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I53">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -17068,7 +17209,7 @@
         <v>-0.567529483063149</v>
       </c>
       <c r="I54">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -17088,7 +17229,7 @@
         <v>-0.6222442852250323</v>
       </c>
       <c r="I55">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -17108,7 +17249,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I56">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -17128,7 +17269,7 @@
         <v>-0.6769590873869156</v>
       </c>
       <c r="I57">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -17148,7 +17289,7 @@
         <v>-0.7316738895487989</v>
       </c>
       <c r="I58">
-        <v>0.27624</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -17168,7 +17309,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I59">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -17188,7 +17329,7 @@
         <v>-0.7863886917106822</v>
       </c>
       <c r="I60">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -17208,7 +17349,7 @@
         <v>-0.8411034938725654</v>
       </c>
       <c r="I61">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -17228,7 +17369,7 @@
         <v>-0.8958182960344487</v>
       </c>
       <c r="I62">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -17248,7 +17389,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I63">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -17268,7 +17409,7 @@
         <v>-0.950533098196332</v>
       </c>
       <c r="I64">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -17288,7 +17429,7 @@
         <v>-1.005247900358215</v>
       </c>
       <c r="I65">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -17308,7 +17449,7 @@
         <v>-1.059962702520099</v>
       </c>
       <c r="I66">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -17328,7 +17469,7 @@
         <v>-1.114677504681982</v>
       </c>
       <c r="I67">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -17348,7 +17489,7 @@
         <v>-1.169392306843866</v>
       </c>
       <c r="I68">
-        <v>0.27695</v>
+        <v>0.26631</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -17368,7 +17509,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I69">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -17388,7 +17529,7 @@
         <v>-1.224107109005749</v>
       </c>
       <c r="I70">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -17408,7 +17549,7 @@
         <v>-1.278821911167633</v>
       </c>
       <c r="I71">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -17428,7 +17569,7 @@
         <v>-1.333536713329516</v>
       </c>
       <c r="I72">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -17448,7 +17589,7 @@
         <v>-1.388251515491399</v>
       </c>
       <c r="I73">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -17468,7 +17609,7 @@
         <v>-1.442966317653283</v>
       </c>
       <c r="I74">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -17488,7 +17629,7 @@
         <v>-1.497681119815166</v>
       </c>
       <c r="I75">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -17508,7 +17649,7 @@
         <v>-1.55239592197705</v>
       </c>
       <c r="I76">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -17528,7 +17669,7 @@
         <v>-1.607110724138933</v>
       </c>
       <c r="I77">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -17548,7 +17689,7 @@
         <v>-1.661825526300816</v>
       </c>
       <c r="I78">
-        <v>0.27938</v>
+        <v>0.26587</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -17568,7 +17709,7 @@
         <v>-1.7165403284627</v>
       </c>
       <c r="I79">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -17588,7 +17729,7 @@
         <v>-1.771255130624583</v>
       </c>
       <c r="I80">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -17608,7 +17749,7 @@
         <v>-1.825969932786466</v>
       </c>
       <c r="I81">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="82" spans="2:9">
@@ -17628,7 +17769,7 @@
         <v>-1.88068473494835</v>
       </c>
       <c r="I82">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -17648,7 +17789,7 @@
         <v>-1.935399537110233</v>
       </c>
       <c r="I83">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -17668,7 +17809,7 @@
         <v>-1.990114339272117</v>
       </c>
       <c r="I84">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -17688,7 +17829,7 @@
         <v>-2.044829141434</v>
       </c>
       <c r="I85">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="86" spans="2:9">
@@ -17708,7 +17849,7 @@
         <v>-2.099543943595883</v>
       </c>
       <c r="I86">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -17728,7 +17869,7 @@
         <v>-2.154258745757767</v>
       </c>
       <c r="I87">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -17748,7 +17889,7 @@
         <v>-2.20897354791965</v>
       </c>
       <c r="I88">
-        <v>0.26108</v>
+        <v>0.2455</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -17768,7 +17909,7 @@
         <v>-2.263688350081534</v>
       </c>
       <c r="I89">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -17788,7 +17929,7 @@
         <v>-2.318403152243417</v>
       </c>
       <c r="I90">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -17808,7 +17949,7 @@
         <v>-2.3731179544053</v>
       </c>
       <c r="I91">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -17828,7 +17969,7 @@
         <v>-2.427832756567184</v>
       </c>
       <c r="I92">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -17848,7 +17989,7 @@
         <v>-2.482547558729067</v>
       </c>
       <c r="I93">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="94" spans="2:9">
@@ -17868,7 +18009,7 @@
         <v>-2.537262360890951</v>
       </c>
       <c r="I94">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -17888,7 +18029,7 @@
         <v>-2.646691965214717</v>
       </c>
       <c r="I95">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="96" spans="2:9">
@@ -17908,7 +18049,7 @@
         <v>-2.7014067673766</v>
       </c>
       <c r="I96">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="97" spans="2:9">
@@ -17928,7 +18069,7 @@
         <v>-2.756121569538484</v>
       </c>
       <c r="I97">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="98" spans="2:9">
@@ -17948,7 +18089,7 @@
         <v>-2.810836371700367</v>
       </c>
       <c r="I98">
-        <v>0.19534</v>
+        <v>0.18115</v>
       </c>
     </row>
     <row r="99" spans="2:9">
@@ -17968,7 +18109,7 @@
         <v>-2.865551173862251</v>
       </c>
       <c r="I99">
-        <v>0.22217</v>
+        <v>0.20288</v>
       </c>
     </row>
     <row r="100" spans="2:9">
@@ -17988,7 +18129,7 @@
         <v>-2.920265976024134</v>
       </c>
       <c r="I100">
-        <v>0.22217</v>
+        <v>0.20288</v>
       </c>
     </row>
   </sheetData>
